--- a/Manuel test cases, Postman json file/Project Aleksandar Cvetkovic manuel test cases.xlsx
+++ b/Manuel test cases, Postman json file/Project Aleksandar Cvetkovic manuel test cases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <t>ID #</t>
   </si>
@@ -352,17 +352,27 @@
   </si>
   <si>
     <t>TC-013, TC-014</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,55 +586,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -633,22 +643,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,7 +935,7 @@
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="15"/>
@@ -943,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -964,10 +975,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -980,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1200,6 +1211,9 @@
       <c r="E29" s="28" t="s">
         <v>88</v>
       </c>
+      <c r="F29" s="40" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
@@ -1224,7 +1238,9 @@
       <c r="E32" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1261,9 @@
       <c r="E35" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="24"/>
+      <c r="F35" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1284,9 @@
       <c r="E38" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="24"/>
+      <c r="F38" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,7 +1307,9 @@
       <c r="E41" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="24"/>
+      <c r="F41" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1330,9 @@
       <c r="E44" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="24"/>
+      <c r="F44" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1353,9 @@
       <c r="E47" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="24"/>
+      <c r="F47" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1384,7 +1410,9 @@
       <c r="E54" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1467,9 @@
       <c r="E61" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="24" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12"/>
@@ -1448,7 +1478,7 @@
       <c r="A63" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="35" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1457,20 +1487,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="36" t="s">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D67" t="s">
@@ -1479,12 +1509,15 @@
       <c r="E67" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="24"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>103</v>
       </c>
@@ -1493,52 +1526,55 @@
       </c>
       <c r="C69" s="10"/>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="37" t="s">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E72" s="37" t="s">
+      <c r="E72" s="34" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="12"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="23"/>
       <c r="C76" s="24"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="22"/>
       <c r="C77" s="24"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="22"/>
       <c r="C78" s="24"/>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="12"/>
       <c r="C79" s="24"/>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="12"/>
       <c r="C80" s="24"/>
     </row>
